--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dyrzkryh/PycharmProjects/finalProject2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nshchigl\Documents\GitHub\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168BDDD-07C4-44E7-B1CB-D97CACD5563E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="2" r:id="rId1"/>
-    <sheet name="ofer shir" sheetId="1" r:id="rId2"/>
-    <sheet name="roni sivan" sheetId="3" r:id="rId3"/>
-    <sheet name="shasa" sheetId="9" r:id="rId4"/>
-    <sheet name="elazar" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet9" sheetId="12" r:id="rId6"/>
+    <sheet name="Ofer" sheetId="1" r:id="rId2"/>
+    <sheet name="Roni" sheetId="3" r:id="rId3"/>
+    <sheet name="Sasha" sheetId="9" r:id="rId4"/>
+    <sheet name="Elazar" sheetId="11" r:id="rId5"/>
+    <sheet name="Ran" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
-  <si>
-    <t>sql</t>
-  </si>
-  <si>
-    <t>compiler</t>
-  </si>
-  <si>
-    <t>liniary algebra</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>assembler</t>
-  </si>
-  <si>
-    <t>cpp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>H+S</t>
   </si>
@@ -64,25 +47,70 @@
     <t>DAIC</t>
   </si>
   <si>
-    <t>maharachotC</t>
-  </si>
-  <si>
     <t>DAIC2</t>
   </si>
   <si>
-    <t>discrat</t>
-  </si>
-  <si>
-    <t>matam</t>
-  </si>
-  <si>
-    <t>mabnat</t>
+    <t>Discrete Math</t>
+  </si>
+  <si>
+    <t>Liniary Algebra</t>
+  </si>
+  <si>
+    <t>Digital Systems</t>
+  </si>
+  <si>
+    <t>Computer Science Intro</t>
+  </si>
+  <si>
+    <t>Intro to Systems Programming</t>
+  </si>
+  <si>
+    <t>Automatic and formal languages</t>
+  </si>
+  <si>
+    <t>Intro to Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>Assembler</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>sasha</t>
+  </si>
+  <si>
+    <t>roni</t>
+  </si>
+  <si>
+    <t>ofer</t>
+  </si>
+  <si>
+    <t>elazar</t>
+  </si>
+  <si>
+    <t>itai</t>
+  </si>
+  <si>
+    <t>ran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -145,12 +173,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,6 +189,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -427,21 +459,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -449,10 +481,13 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -460,138 +495,509 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -603,41 +1009,41 @@
         <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -649,15 +1055,15 @@
         <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -670,12 +1076,12 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -688,12 +1094,12 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -706,12 +1112,12 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -724,12 +1130,12 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -742,12 +1148,12 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -760,12 +1166,12 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -778,380 +1184,85 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1164,314 +1275,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>100</v>
       </c>
@@ -1488,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -1511,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -1533,11 +1349,9 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -1555,7 +1369,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -1573,7 +1387,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -1591,7 +1405,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1609,7 +1423,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>100</v>
       </c>
@@ -1627,7 +1441,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -1645,7 +1459,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>100</v>
       </c>
@@ -1663,85 +1477,383 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1754,15 +1866,291 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D5DF1B-2979-41ED-9D72-110554C48737}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>